--- a/Documentació Projecte/projecte_app.xlsx
+++ b/Documentació Projecte/projecte_app.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIELOXS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Github\ProjecteFinal\Documentació Projecte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B00003-0F84-4538-A35F-F23483697208}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D648EC1F-4B1B-4BAF-B5D7-22E9FEF23AA2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,43 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>Pantalla d'inici</t>
-  </si>
-  <si>
-    <t>Salutació/Nom de l'aplicació (restasearch)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login rollo netflix per escollir un perfil. Crear-ne un si no hi ha </t>
-  </si>
-  <si>
-    <t>Opció per crear perfils adiccionals</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Text per veure la política de privacitat</t>
   </si>
   <si>
-    <t>Creació de perfil</t>
-  </si>
-  <si>
-    <t>Demanar informació personal (Usuari, contrasenya, email)</t>
-  </si>
-  <si>
-    <t>Petitat explicació "Benvingut a la pantalla de registre"</t>
-  </si>
-  <si>
-    <t>Acceptar les polítiques de privacitat i contacte</t>
-  </si>
-  <si>
-    <t>Validació creació de perfil</t>
-  </si>
-  <si>
     <t>Pantalla Inicial (Mapa)</t>
-  </si>
-  <si>
-    <t>Pantalla lateral esquerra que rediritgeixi a les altres pantalles
-(panell usuari, mapa, logout)</t>
   </si>
   <si>
     <t>Opcions (sharedpreferences)</t>
@@ -95,9 +63,6 @@
 Mostrar menu lateral a la part dreta</t>
   </si>
   <si>
-    <t>poder canviar de perfil (logout)</t>
-  </si>
-  <si>
     <t>TOTAL HORES</t>
   </si>
   <si>
@@ -114,12 +79,16 @@
   </si>
   <si>
     <t>Afegir dos botons (mapa i llista)</t>
+  </si>
+  <si>
+    <t>Pantalla lateral esquerra que rediritgeixi a les altres pantalles
+(home, historial, preferits, mapa, privacitat)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,194 +448,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E904857-CF33-485C-9936-10301671BBC1}">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <f>SUM(F2,F3,F4)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32">
-        <f>SUM(C2:C30)</f>
+        <f>SUM(C2:C15)</f>
         <v>30</v>
       </c>
     </row>
